--- a/participants/participant_32/participant_32_task_orders.xlsx
+++ b/participants/participant_32/participant_32_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16498731006650484" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-1649873103036447" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-1649873103037415" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16498731030854506" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-164987310314845" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16502912340006447" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-1650291236882815" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-1650291236884814" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16502912369318125" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16502912369948096" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-1649873100633047.csv</t>
+          <t>go_stims-16502912339436536.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16498731006470835.csv</t>
+          <t>GNG_stims-16502912339676428.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16498731006480463.csv</t>
+          <t>go_stims-16502912339686422.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16498731006630821.csv</t>
+          <t>GNG_stims-1650291233999645.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-16498731030224462.csv</t>
+          <t>ZB-match_8-16502912345426433.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-1649873102671413.csv</t>
+          <t>ZB-match_9-16502912352878213.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_3-16498731018684454.csv</t>
+          <t>TB-16502912361228454.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16498731025494485.csv</t>
+          <t>OB-1650291235791807.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_8-16498731016994305.csv</t>
+          <t>OB-16502912357438405.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-1649873102002448.csv</t>
+          <t>ZB-match_3-1650291234649646.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16498731021744115.csv</t>
+          <t>OB-16502912353758178.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_7-16498731008674614.csv</t>
+          <t>TB-16502912368628085.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-16498731021184497.csv</t>
+          <t>TB-16502912364758434.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16498731030524127.csv</t>
+          <t>MM_stims-16502912368988116.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16498731030394166.csv</t>
+          <t>ZM_stims-16502912368878198.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16498731030684466.csv</t>
+          <t>MM_stims-16502912369148188.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16498731030534139.csv</t>
+          <t>ZM_stims-1650291236899812.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16498731030844464.csv</t>
+          <t>MM_stims-16502912369308164.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-1649873103069412.csv</t>
+          <t>ZM_stims-16502912369158094.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498731031164472.csv</t>
+          <t>SAT_stims-1650291236947822.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498731031334498.csv</t>
+          <t>SAT_stims-16502912369348128.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16498731031004474.csv</t>
+          <t>vSAT_stims-16502912369638133.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16498731030884144.csv</t>
+          <t>vSAT_stims-16502912369788134.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_32/participant_32_task_orders.xlsx
+++ b/participants/participant_32/participant_32_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16502912340006447" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-1650291236882815" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-1650291236884814" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16502912369318125" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16502912369948096" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16504778558065643" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16504778583995283" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16504778584015288" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16504778584485295" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16504778585115669" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16502912339436536.csv</t>
+          <t>go_stims-16504778557784436.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16502912339676428.csv</t>
+          <t>GNG_stims-1650477855789528.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16502912339686422.csv</t>
+          <t>go_stims-16504778557905524.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-1650291233999645.csv</t>
+          <t>GNG_stims-16504778558055615.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_8-16502912345426433.csv</t>
+          <t>TB-16504778572475295.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_9-16502912352878213.csv</t>
+          <t>ZB-match_2-1650477856218532.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16502912361228454.csv</t>
+          <t>OB-16504778567615316.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-1650291235791807.csv</t>
+          <t>ZB-match_4-1650477855896531.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-16502912357438405.csv</t>
+          <t>TB-16504778582325628.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_3-1650291234649646.csv</t>
+          <t>ZB-match_0-16504778559355304.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16502912353758178.csv</t>
+          <t>TB-1650477858380526.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-16502912368628085.csv</t>
+          <t>OB-16504778566105583.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16502912364758434.csv</t>
+          <t>OB-16504778570135624.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16502912368988116.csv</t>
+          <t>MM_stims-16504778584155633.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16502912368878198.csv</t>
+          <t>ZM_stims-16504778584035282.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16502912369148188.csv</t>
+          <t>MM_stims-16504778584315627.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-1650291236899812.csv</t>
+          <t>ZM_stims-16504778584155633.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16502912369308164.csv</t>
+          <t>MM_stims-16504778584475634.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16502912369158094.csv</t>
+          <t>ZM_stims-16504778584325292.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-1650291236947822.csv</t>
+          <t>SAT_stims-16504778584635272.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16502912369348128.csv</t>
+          <t>vSAT_stims-16504778584955637.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502912369638133.csv</t>
+          <t>vSAT_stims-1650477858479564.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502912369788134.csv</t>
+          <t>SAT_stims-16504778584515293.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_32/participant_32_task_orders.xlsx
+++ b/participants/participant_32/participant_32_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16504778558065643" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16504778583995283" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16504778584015288" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16504778584485295" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16504778585115669" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16509961473895752" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-1650996149439096" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-1650996149439096" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16509961494870749" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16509961495590568" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16504778557784436.csv</t>
+          <t>go_stims-16509961473495378.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-1650477855789528.csv</t>
+          <t>GNG_stims-16509961473735778.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16504778557905524.csv</t>
+          <t>go_stims-16509961473735778.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16504778558055615.csv</t>
+          <t>GNG_stims-16509961473895752.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-16504778572475295.csv</t>
+          <t>OB-16509961485348463.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_2-1650477856218532.csv</t>
+          <t>ZB-match_0-16509961473895752.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16504778567615316.csv</t>
+          <t>ZB-match_4-16509961475495794.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_4-1650477855896531.csv</t>
+          <t>TB-16509961494150436.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16504778582325628.csv</t>
+          <t>OB-16509961479908764.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_0-16504778559355304.csv</t>
+          <t>ZB-match_6-1650996147590886.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-1650477858380526.csv</t>
+          <t>TB-1650996148991043.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-16504778566105583.csv</t>
+          <t>TB-1650996148919078.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-16504778570135624.csv</t>
+          <t>OB-16509961481348789.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16504778584155633.csv</t>
+          <t>MM_stims-1650996149455077.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778584035282.csv</t>
+          <t>ZM_stims-1650996149439096.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16504778584315627.csv</t>
+          <t>MM_stims-16509961494710808.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778584155633.csv</t>
+          <t>ZM_stims-1650996149455077.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16504778584475634.csv</t>
+          <t>MM_stims-16509961494870749.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778584325292.csv</t>
+          <t>ZM_stims-16509961494710808.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16504778584635272.csv</t>
+          <t>vSAT_stims-16509961495350425.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504778584955637.csv</t>
+          <t>vSAT_stims-165099614951908.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-1650477858479564.csv</t>
+          <t>SAT_stims-16509961495030527.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16504778584515293.csv</t>
+          <t>SAT_stims-16509961494870749.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_32/participant_32_task_orders.xlsx
+++ b/participants/participant_32/participant_32_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16509961473895752" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-1650996149439096" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-1650996149439096" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16509961494870749" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16509961495590568" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16511687460550764" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-1651168749497724" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16511687494987292" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16511687495477245" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16511687496227272" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16509961473495378.csv</t>
+          <t>go_stims-16511687460161664.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16509961473735778.csv</t>
+          <t>GNG_stims-16511687460373797.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16509961473735778.csv</t>
+          <t>go_stims-1651168746038468.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16509961473895752.csv</t>
+          <t>GNG_stims-1651168746054072.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16509961485348463.csv</t>
+          <t>ZB-match_5-16511687468299563.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_0-16509961473895752.csv</t>
+          <t>OB-16511687468665736.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_4-16509961475495794.csv</t>
+          <t>OB-16511687470775726.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16509961494150436.csv</t>
+          <t>TB-16511687482417235.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-16509961479908764.csv</t>
+          <t>ZB-match_7-16511687468001144.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_6-1650996147590886.csv</t>
+          <t>TB-1651168749287758.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-1650996148991043.csv</t>
+          <t>ZB-match_8-16511687465175998.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-1650996148919078.csv</t>
+          <t>OB-1651168747889727.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-16509961481348789.csv</t>
+          <t>TB-16511687494757254.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-1650996149455077.csv</t>
+          <t>MM_stims-16511687495137262.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-1650996149439096.csv</t>
+          <t>ZM_stims-1651168749499727.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16509961494710808.csv</t>
+          <t>MM_stims-16511687495297222.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-1650996149455077.csv</t>
+          <t>ZM_stims-16511687495147274.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16509961494870749.csv</t>
+          <t>MM_stims-1651168749545721.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961494710808.csv</t>
+          <t>ZM_stims-16511687495307229.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509961495350425.csv</t>
+          <t>SAT_stims-16511687495517228.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-165099614951908.csv</t>
+          <t>vSAT_stims-16511687495917208.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16509961495030527.csv</t>
+          <t>vSAT_stims-16511687496077209.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16509961494870749.csv</t>
+          <t>SAT_stims-16511687495767214.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_32/participant_32_task_orders.xlsx
+++ b/participants/participant_32/participant_32_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16511687460550764" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-1651168749497724" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16511687494987292" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16511687495477245" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16511687496227272" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-1651255574212943" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16512555762625153" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-1651255576264542" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16512555763100703" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16512555763894393" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16511687460161664.csv</t>
+          <t>go_stims-16512555741813917.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16511687460373797.csv</t>
+          <t>GNG_stims-1651255574198038.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-1651168746038468.csv</t>
+          <t>go_stims-16512555741990266.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-1651168746054072.csv</t>
+          <t>GNG_stims-1651255574211944.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_5-16511687468299563.csv</t>
+          <t>OB-1651255575524035.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16511687468665736.csv</t>
+          <t>ZB-match_1-16512555743809593.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16511687470775726.csv</t>
+          <t>ZB-match_4-1651255574794492.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16511687482417235.csv</t>
+          <t>TB-16512555758231156.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_7-16511687468001144.csv</t>
+          <t>TB-1651255575773884.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-1651168749287758.csv</t>
+          <t>OB-1651255575738886.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_8-16511687465175998.csv</t>
+          <t>ZB-match_9-16512555746536973.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-1651168747889727.csv</t>
+          <t>TB-1651255576231916.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16511687494757254.csv</t>
+          <t>OB-16512555753776557.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16511687495137262.csv</t>
+          <t>MM_stims-1651255576277993.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-1651168749499727.csv</t>
+          <t>ZM_stims-1651255576266543.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16511687495297222.csv</t>
+          <t>MM_stims-16512555762940729.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16511687495147274.csv</t>
+          <t>ZM_stims-16512555762789967.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-1651168749545721.csv</t>
+          <t>MM_stims-16512555763100703.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16511687495307229.csv</t>
+          <t>ZM_stims-16512555762951312.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16511687495517228.csv</t>
+          <t>vSAT_stims-16512555763584886.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16511687495917208.csv</t>
+          <t>vSAT_stims-16512555763734372.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16511687496077209.csv</t>
+          <t>SAT_stims-16512555763434258.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16511687495767214.csv</t>
+          <t>SAT_stims-16512555763170507.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_32/participant_32_task_orders.xlsx
+++ b/participants/participant_32/participant_32_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-1651255574212943" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16512555762625153" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-1651255576264542" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16512555763100703" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16512555763894393" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="NB_TO-1651589009611877" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="TOL_TO-1651589009658752" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="GNG_TO-16515890096899672" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="RS_TO-16515890096899672" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16515890097525496" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16512555741813917.csv</t>
+          <t>OB-16515890080283446.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-1651255574198038.csv</t>
+          <t>OB-1651589008078596.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16512555741990266.csv</t>
+          <t>ZB-match_4-1651589007814657.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,57 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-1651255574211944.csv</t>
+          <t>OB-16515890079890049.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>TB-16515890095806267.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ZB-match_3-16515890078458734.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>TB-16515890089957044.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ZB-match_0-16515890078927443.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>TB-16515890094846842.csv</t>
         </is>
       </c>
     </row>
@@ -495,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,7 +566,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-1651255575524035.csv</t>
+          <t>MM_stims-16515890096274955.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +576,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_1-16512555743809593.csv</t>
+          <t>ZM_stims-1651589009611877.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +586,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_4-1651255574794492.csv</t>
+          <t>MM_stims-16515890096431239.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +596,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16512555758231156.csv</t>
+          <t>ZM_stims-16515890096274955.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-1651255575773884.csv</t>
+          <t>MM_stims-1651589009658752.csv</t>
         </is>
       </c>
     </row>
@@ -566,37 +616,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-1651255575738886.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ZB-match_9-16512555746536973.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>TB-1651255576231916.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>OB-16512555753776557.csv</t>
+          <t>ZM_stims-16515890096431239.csv</t>
         </is>
       </c>
     </row>
@@ -606,6 +626,72 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>task_order</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>go_stims-1651589009658752.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>GNG_stims-16515890096743402.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>go_stims-16515890096743402.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>GNG_stims-16515890096899672.csv</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -643,92 +729,6 @@
       <c r="B3" t="inlineStr">
         <is>
           <t>eyes open</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>task_order</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>MM_stims-1651255576277993.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ZM_stims-1651255576266543.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MM_stims-16512555762940729.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ZM_stims-16512555762789967.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>MM_stims-16512555763100703.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ZM_stims-16512555762951312.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16512555763584886.csv</t>
+          <t>vSAT_stims-16515890097212162.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16512555763734372.csv</t>
+          <t>SAT_stims-16515890097055924.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16512555763434258.csv</t>
+          <t>vSAT_stims-1651589009736843.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16512555763170507.csv</t>
+          <t>SAT_stims-16515890096899672.csv</t>
         </is>
       </c>
     </row>
